--- a/AdvanceSelenium/src/test/resources/ ScriptData.xlsx
+++ b/AdvanceSelenium/src/test/resources/ ScriptData.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\AdvanceSelenium\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\repository\AdvanceSelenium\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7DA5F0-A01B-42EF-86BD-02FCCEDE6A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C12C51-F837-4759-B3C8-7D97298AB479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Organisation" sheetId="1" r:id="rId1"/>
-    <sheet name=" Contacts" sheetId="2" r:id="rId2"/>
-    <sheet name="Opportunities" sheetId="3" r:id="rId3"/>
-    <sheet name=" Trouble Ticket" sheetId="4" r:id="rId4"/>
-    <sheet name=" Campaign" sheetId="5" r:id="rId5"/>
-    <sheet name=" Leads" sheetId="6" r:id="rId6"/>
+    <sheet name="Products" sheetId="7" r:id="rId2"/>
+    <sheet name=" Contacts" sheetId="2" r:id="rId3"/>
+    <sheet name="Opportunities" sheetId="3" r:id="rId4"/>
+    <sheet name=" Trouble Ticket" sheetId="4" r:id="rId5"/>
+    <sheet name=" Campaign" sheetId="5" r:id="rId6"/>
+    <sheet name=" Leads" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Amazon</t>
   </si>
@@ -57,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Dove</t>
   </si>
 </sst>
 </file>
@@ -387,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -422,6 +426,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A44D297-DA18-4392-B811-90040A8697EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30339674-1655-4167-B874-01E56609B640}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -457,7 +481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6A1B7E-FB09-40C4-A1C6-696DFC733B37}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -475,7 +499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6E4B6C-3D85-4DDD-8196-EE5E41F2E295}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -493,7 +517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2289E06-1E41-4B58-ACD9-9FAC1E35C7DA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -518,7 +542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0107F8F-DB58-4E4E-A0FA-A5E69CD9DA13}">
   <dimension ref="A1:A2"/>
   <sheetViews>
